--- a/20.10.2023/likeUser/data.xlsx
+++ b/20.10.2023/likeUser/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
   <si>
     <t>post1</t>
   </si>
@@ -157,6 +157,39 @@
   </si>
   <si>
     <t>Iswarya</t>
+  </si>
+  <si>
+    <t>posthttps://www.instagram.com/p/Cyz4ImgyBhh/?utm_source=ig_web_copy_link&amp;igshid=MzRlODBiNWFlZA==</t>
+  </si>
+  <si>
+    <t>ashwin_alvin_4997</t>
+  </si>
+  <si>
+    <t>❤Ashwin Alvin❤</t>
+  </si>
+  <si>
+    <t>_thamizh_27</t>
+  </si>
+  <si>
+    <t>Thamizh</t>
+  </si>
+  <si>
+    <t>arun_saras</t>
+  </si>
+  <si>
+    <t>Arun Saras</t>
+  </si>
+  <si>
+    <t>prem_dhashna</t>
+  </si>
+  <si>
+    <t>Prem Dhashna</t>
+  </si>
+  <si>
+    <t>govardhanan_m</t>
+  </si>
+  <si>
+    <t>கோva✨</t>
   </si>
 </sst>
 </file>
@@ -475,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
@@ -964,6 +997,118 @@
         <v>1</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
